--- a/static/doc/数据表结构.xlsx
+++ b/static/doc/数据表结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>articles   文章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>我发布的文章gid，以，分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index 值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -706,7 +714,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -802,7 +810,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -824,7 +832,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -873,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -881,9 +889,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
@@ -891,8 +899,11 @@
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -903,7 +914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -917,7 +928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -928,7 +939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
@@ -936,17 +947,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -964,7 +975,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
@@ -1099,7 +1110,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
